--- a/biology/Mycologie/Hygrocybe/Hygrocybe.xlsx
+++ b/biology/Mycologie/Hygrocybe/Hygrocybe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Hygrocybe est un genre de champignons de la famille des Hygrophoracées.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de champignons de taille modeste (4 à 7 cm, maximum 10 cm) poussant dans l'herbe. Leurs chapeaux, de couleurs diverses et parfois très vives, restent souvent assez longtemps coniques avant de s'étaler et présentent un aspect « humide » (d'où leur nom tiré du grec qui signifie littéralement tête d'eau), cireux ou visqueux. Plusieurs espèces noircissent en vieillissant. 
 La présence  d'hygrocybes indique généralement des prairies gérées de façon extensive, non perturbées depuis relativement longtemps.
@@ -543,7 +557,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hygrocybe coccinea, hygrophore cochenille, rouge vif
 Hygrocybe conica, hygrophore conique, orangé (noircissant)
